--- a/Docs/Report Input.xlsx
+++ b/Docs/Report Input.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Upwork\ESPN CricInfo Scrape\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6970BCBA-E588-46E6-8F4B-0BFA0D3490AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3BC798-65C0-4EB4-8CA0-77BBDBA77D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Player URL</t>
   </si>
@@ -83,6 +83,27 @@
   </si>
   <si>
     <t>https://www.espncricinfo.com/cricketers/ibrahim-zadran-921509</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Ground</t>
+  </si>
+  <si>
+    <t>H2H</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>International</t>
+  </si>
+  <si>
+    <t>Player ID</t>
   </si>
 </sst>
 </file>
@@ -648,142 +669,215 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.21875" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="55.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>959767</v>
       </c>
       <c r="C2">
-        <v>434211</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>58324</v>
       </c>
       <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>300</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3">
+        <v>959767</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>434211</v>
-      </c>
       <c r="D3">
-        <v>8</v>
+        <v>58324</v>
       </c>
       <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>300</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>959767</v>
       </c>
       <c r="C4">
-        <v>434211</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>58324</v>
       </c>
       <c r="E4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>959767</v>
       </c>
       <c r="C5">
-        <v>434211</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>58324</v>
       </c>
       <c r="E5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>434211</v>
-      </c>
-      <c r="D6">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>434211</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="13"/>
     </row>
   </sheetData>
   <dataConsolidate/>
